--- a/Reports/debouncing.xlsx
+++ b/Reports/debouncing.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glagl\Documents\GitHub\piloufas\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\New\Documents\GitHub\piloufas\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10640" xr2:uid="{20BC005B-2AEF-464A-B6AC-C346F5C044C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,11 +50,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -91,7 +91,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
@@ -99,8 +99,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -109,7 +109,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -128,7 +128,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.000%"/>
+      <numFmt numFmtId="165" formatCode="0.000%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -140,7 +140,7 @@
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -190,11 +190,27 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Accuracy ticks chart</a:t>
+              <a:t>Relative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> a</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ccuracy ticks chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41342592521453597"/>
+          <c:y val="5.1238257899231428E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -220,7 +236,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -265,53 +281,50 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Sheet1!$A$3:$A$16</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>_(* #\ ##0_);_(* \(#\ ##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2048</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4096</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8192</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16384</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32768</c:v>
+                  <c:v>65536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65536</c:v>
+                  <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131072</c:v>
+                  <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>262144</c:v>
+                  <c:v>524288</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>524288</c:v>
+                  <c:v>1048576</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>2097152</c:v>
                 </c:pt>
               </c:numCache>
@@ -326,15 +339,15 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$D$2:$D$16</c:f>
+              <c:f>Sheet1!$D$3:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.78125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78125</c:v>
+                  <c:v>0.9765625</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.9765625</c:v>
@@ -346,33 +359,30 @@
                   <c:v>0.9765625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9765625</c:v>
+                  <c:v>0.98876953125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98876953125</c:v>
+                  <c:v>0.994873046875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.994873046875</c:v>
+                  <c:v>0.9979248046875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9979248046875</c:v>
+                  <c:v>0.99945068359375</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.99945068359375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99945068359375</c:v>
+                  <c:v>0.9998321533203125</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.9998321533203125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9998321533203125</c:v>
+                  <c:v>0.99992752075195313</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99992752075195313</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>0.99997520446777344</c:v>
                 </c:pt>
               </c:numCache>
@@ -436,53 +446,50 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Sheet1!$A$3:$A$16</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>_(* #\ ##0_);_(* \(#\ ##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2048</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4096</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8192</c:v>
+                  <c:v>16384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16384</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32768</c:v>
+                  <c:v>65536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65536</c:v>
+                  <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131072</c:v>
+                  <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>262144</c:v>
+                  <c:v>524288</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>524288</c:v>
+                  <c:v>1048576</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>2097152</c:v>
                 </c:pt>
               </c:numCache>
@@ -497,53 +504,50 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$G$2:$G$16</c:f>
+              <c:f>Sheet1!$G$3:$G$16</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>_(* #\ ##0_);_(* \(#\ ##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>164</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>328</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>656</c:v>
+                  <c:v>1311</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1311</c:v>
+                  <c:v>2622</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2622</c:v>
+                  <c:v>5243</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5243</c:v>
+                  <c:v>10486</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10486</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>20972</c:v>
                 </c:pt>
               </c:numCache>
@@ -576,7 +580,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -610,7 +614,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="562603336"/>
@@ -626,7 +630,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.75000000000000011"/>
+          <c:min val="0.77"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -686,7 +690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="562603008"/>
@@ -701,7 +705,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -729,7 +733,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="562707952"/>
@@ -743,7 +747,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -789,7 +793,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -826,7 +830,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1419,24 +1423,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB4D0DAE-E069-44AA-9D94-00AE2DCE3A52}" name="Table1" displayName="Table1" ref="A1:G16" totalsRowShown="0">
-  <autoFilter ref="A1:G16" xr:uid="{ACE858B4-8BDA-4DA8-B1F9-10A51D31503C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G16" totalsRowShown="0">
+  <autoFilter ref="A1:G16"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AA7BBF95-E26A-4A1E-A412-AF564215F134}" name="f[Hz]" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{AE840447-89AE-4797-8AEB-79AD5A5EEC61}" name="T[s]" dataDxfId="4">
+    <tableColumn id="1" name="f[Hz]" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="3" name="T[s]" dataDxfId="4">
       <calculatedColumnFormula>1/Table1[[#This Row],[f'[Hz']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A7D5EA7F-A7E4-4911-9493-14E580ADC765}" name="Absolute Accuracy" dataDxfId="3">
+    <tableColumn id="4" name="Absolute Accuracy" dataDxfId="3">
       <calculatedColumnFormula>MOD(Table1[[#This Row],[f'[Hz']]],100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C8D056B2-BD2E-40FE-A288-39AE591CFF49}" name="Relative Accuracy" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="8" name="Relative Accuracy" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>ABS(1-Table1[[#This Row],[Absolute Accuracy]]/Table1[[#This Row],[f'[Hz']]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3DE34A31-EDC9-4428-B279-F67D4FCECFA6}" name="Relative Error" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="2" name="Relative Error" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>1-Table1[[#This Row],[Relative Accuracy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{36088E54-80E7-4808-9EED-A9F9C929D520}" name="Stability time[ms]"/>
-    <tableColumn id="7" xr3:uid="{0043FCA3-B888-49F8-81CA-42ECADC52EA7}" name="Stability ticks" dataDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="6" name="Stability time[ms]"/>
+    <tableColumn id="7" name="Stability ticks" dataDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[Stability time'[ms']]]/Table1[[#This Row],[T'[s']]]/1000,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1740,25 +1744,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C577711-10E3-4A99-A3D6-8AB97CBBAEB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1781,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>128</v>
       </c>
@@ -1809,7 +1813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>2*A2</f>
         <v>256</v>
@@ -1838,7 +1842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>2*A3</f>
         <v>512</v>
@@ -1867,7 +1871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" ref="A5:A16" si="0">2*A4</f>
         <v>1024</v>
@@ -1896,7 +1900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>2048</v>
@@ -1925,7 +1929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>4096</v>
@@ -1954,7 +1958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>8192</v>
@@ -1983,7 +1987,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>16384</v>
@@ -2012,7 +2016,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>32768</v>
@@ -2041,7 +2045,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>65536</v>
@@ -2070,7 +2074,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>131072</v>
@@ -2099,7 +2103,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>262144</v>
@@ -2128,7 +2132,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>524288</v>
@@ -2157,7 +2161,7 @@
         <v>5243</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>1048576</v>
@@ -2186,7 +2190,7 @@
         <v>10486</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>2097152</v>
@@ -2215,52 +2219,52 @@
         <v>20972</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
     </row>
   </sheetData>

--- a/Reports/debouncing.xlsx
+++ b/Reports/debouncing.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\New\Documents\GitHub\piloufas\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glagl\Documents\GitHub\piloufas\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,11 +50,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -91,7 +91,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
@@ -99,8 +99,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -109,7 +109,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -128,7 +128,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.000%"/>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -140,7 +140,7 @@
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -236,7 +236,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -281,10 +281,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$3:$A$16</c:f>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>_(* #\ ##0_);_(* \(#\ ##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>256</c:v>
                 </c:pt>
@@ -302,30 +302,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>524288</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2097152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,10 +315,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$D$3:$D$16</c:f>
+              <c:f>Sheet1!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.78125</c:v>
                 </c:pt>
@@ -360,30 +336,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.98876953125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.994873046875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9979248046875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99945068359375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99945068359375</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9998321533203125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9998321533203125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.99992752075195313</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99997520446777344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,10 +398,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$A$3:$A$16</c:f>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>_(* #\ ##0_);_(* \(#\ ##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>256</c:v>
                 </c:pt>
@@ -467,30 +419,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>524288</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2097152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -504,10 +432,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$G$3:$G$16</c:f>
+              <c:f>Sheet1!$G$3:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>_(* #\ ##0_);_(* \(#\ ##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -525,30 +453,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>656</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1311</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2622</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5243</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10486</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,7 +484,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -602,7 +506,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -614,7 +518,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="562603336"/>
@@ -630,7 +534,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.77"/>
+          <c:min val="0.75000000000000011"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -678,7 +582,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -690,7 +594,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="562603008"/>
@@ -705,7 +609,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -721,7 +625,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -733,7 +637,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="562707952"/>
@@ -747,7 +651,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -793,7 +697,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -830,7 +734,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1423,24 +1327,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G16" totalsRowShown="0">
-  <autoFilter ref="A1:G16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G16" totalsRowShown="0">
+  <autoFilter ref="A1:G16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="f[Hz]" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="3" name="T[s]" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="f[Hz]" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="T[s]" dataDxfId="4">
       <calculatedColumnFormula>1/Table1[[#This Row],[f'[Hz']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Absolute Accuracy" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absolute Accuracy" dataDxfId="3">
       <calculatedColumnFormula>MOD(Table1[[#This Row],[f'[Hz']]],100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Relative Accuracy" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Relative Accuracy" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>ABS(1-Table1[[#This Row],[Absolute Accuracy]]/Table1[[#This Row],[f'[Hz']]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Relative Error" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Relative Error" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>1-Table1[[#This Row],[Relative Accuracy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Stability time[ms]"/>
-    <tableColumn id="7" name="Stability ticks" dataDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Stability time[ms]"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Stability ticks" dataDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[Stability time'[ms']]]/Table1[[#This Row],[T'[s']]]/1000,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1744,25 +1648,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1785,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>128</v>
       </c>
@@ -1813,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f>2*A2</f>
         <v>256</v>
@@ -1842,7 +1746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f>2*A3</f>
         <v>512</v>
@@ -1871,7 +1775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" ref="A5:A16" si="0">2*A4</f>
         <v>1024</v>
@@ -1900,7 +1804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>2048</v>
@@ -1929,7 +1833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>4096</v>
@@ -1958,7 +1862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>8192</v>
@@ -1987,7 +1891,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>16384</v>
@@ -2016,7 +1920,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>32768</v>
@@ -2045,7 +1949,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>65536</v>
@@ -2074,7 +1978,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>131072</v>
@@ -2103,7 +2007,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>262144</v>
@@ -2132,7 +2036,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>524288</v>
@@ -2161,7 +2065,7 @@
         <v>5243</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>1048576</v>
@@ -2190,7 +2094,7 @@
         <v>10486</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>2097152</v>
@@ -2219,52 +2123,52 @@
         <v>20972</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C32" s="2"/>
     </row>
   </sheetData>
